--- a/doc/2019-01-poster/plots/i2cner_nonuc_final_2018-12-31.xlsx
+++ b/doc/2019-01-poster/plots/i2cner_nonuc_final_2018-12-31.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\achubbz\Desktop\poster -plots\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{AA654C88-1C3B-474A-BA62-20AA33A689BE}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{741E4CF0-608A-44EE-B040-70463191F418}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-32760" yWindow="-32760" windowWidth="19728" windowHeight="9480" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-32760" yWindow="-32760" windowWidth="19728" windowHeight="9480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ELC" sheetId="2" r:id="rId1"/>
@@ -4890,7 +4890,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{FBD1E745-E242-462C-99CA-B67F21CFAADA}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="87" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="87" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5229,9 +5229,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CL20"/>
   <sheetViews>
-    <sheetView topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="X7" sqref="X7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
